--- a/spliced/walkingToRunning/2023-03-24_10-02-33/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-02-33/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08649813517820913</v>
+        <v>-0.5190548883925257</v>
       </c>
       <c r="B2" t="n">
-        <v>0.547052580675635</v>
+        <v>-1.450479206421397</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.252822607970066</v>
+        <v>-0.2456109922566745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.437740078075332</v>
+        <v>-0.2103044650108719</v>
       </c>
       <c r="B3" t="n">
-        <v>1.126307351126085</v>
+        <v>-1.79173934116638</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.559476730634846</v>
+        <v>-0.6462500674261389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5899122018608201</v>
+        <v>2.22406245532224</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2019931215176515</v>
+        <v>-1.244166610052261</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.062480832175385</v>
+        <v>-0.3580538825594288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5190548883925257</v>
+        <v>1.525593809515442</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.450479206421397</v>
+        <v>-1.465595992349037</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2456109922566745</v>
+        <v>0.216453205767295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2103044650108719</v>
+        <v>-4.037772781986149</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.79173934116638</v>
+        <v>-3.096113548004377</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6462500674261389</v>
+        <v>2.077658006398807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.22406245532224</v>
+        <v>-7.127989895909813</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.244166610052261</v>
+        <v>1.020252332412979</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3580538825594288</v>
+        <v>0.7169627440061292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.525593809515442</v>
+        <v>0.1363662918695203</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.465595992349037</v>
+        <v>-0.7235090681117633</v>
       </c>
       <c r="C8" t="n">
-        <v>0.216453205767295</v>
+        <v>1.348089827050427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.037772781986149</v>
+        <v>6.111373266727803</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.096113548004377</v>
+        <v>-3.888724038926818</v>
       </c>
       <c r="C9" t="n">
-        <v>2.077658006398807</v>
+        <v>-0.6717052065211169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.127989895909813</v>
+        <v>2.017424072293039</v>
       </c>
       <c r="B10" t="n">
-        <v>1.020252332412979</v>
+        <v>-1.605387079201143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7169627440061292</v>
+        <v>-3.74285111324393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1363662918695203</v>
+        <v>-3.043187412426637</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7235090681117633</v>
+        <v>-0.6237803290216224</v>
       </c>
       <c r="C11" t="n">
-        <v>1.348089827050427</v>
+        <v>1.956819472553102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.111373266727803</v>
+        <v>-10.0801253147263</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.888724038926818</v>
+        <v>-3.291420891988214</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6717052065211169</v>
+        <v>5.852694562870816</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.017424072293039</v>
+        <v>-1.435964323633735</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.605387079201143</v>
+        <v>-3.116479964565011</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.74285111324393</v>
+        <v>-1.45930368780239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.043187412426637</v>
+        <v>4.520515643435422</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6237803290216224</v>
+        <v>-6.424601422797</v>
       </c>
       <c r="C14" t="n">
-        <v>1.956819472553102</v>
+        <v>-1.258769486447896</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-10.0801253147263</v>
+        <v>3.804642815384075</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.291420891988214</v>
+        <v>-2.879516224209357</v>
       </c>
       <c r="C15" t="n">
-        <v>5.852694562870816</v>
+        <v>0.2698007882070206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.435964323633735</v>
+        <v>2.50941535251603</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.116479964565011</v>
+        <v>3.106572741227184</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.45930368780239</v>
+        <v>1.131389019300618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.520515643435422</v>
+        <v>-5.14737601803366</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.424601422797</v>
+        <v>0.1312354588679825</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.258769486447896</v>
+        <v>5.117585698477669</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.804642815384075</v>
+        <v>-2.502922200470437</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.879516224209357</v>
+        <v>3.250862176469831</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2698007882070206</v>
+        <v>-2.965100693188241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.50941535251603</v>
+        <v>2.697737143194075</v>
       </c>
       <c r="B19" t="n">
-        <v>3.106572741227184</v>
+        <v>-2.115886496125361</v>
       </c>
       <c r="C19" t="n">
-        <v>1.131389019300618</v>
+        <v>-4.09576786507806</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.14737601803366</v>
+        <v>5.033141990359741</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1312354588679825</v>
+        <v>-4.757362827122633</v>
       </c>
       <c r="C20" t="n">
-        <v>5.117585698477669</v>
+        <v>-1.592488460403557</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.502922200470437</v>
+        <v>4.163411040957872</v>
       </c>
       <c r="B21" t="n">
-        <v>3.250862176469831</v>
+        <v>2.378721077665152</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.965100693188241</v>
+        <v>-1.909676737064927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.440776584817322</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.270052646561497</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.502104572254968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-4.33349856712834</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.117880192592036</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.15704054626636</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3903590963899126</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12.85140922601278</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.864528203182092</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.438172858395985</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.542828546153372</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.415844210617843</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.09949780518202356</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-6.494732479397333</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.307635595472599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.967174616863385</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-6.35848597656913</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.059108837045416</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-9.929815484465564</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.435556281384915</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.079216970814213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-5.980313006064948</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-16.70210841062257</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5289435215133755</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.703074371214343</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-13.00758359758107</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.666179502181835</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.259694958762311</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.829939403122192</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.400759592759585</v>
       </c>
     </row>
   </sheetData>
